--- a/JioMobile/May2021Mobile.xlsx
+++ b/JioMobile/May2021Mobile.xlsx
@@ -24,6 +24,29 @@
     <author>Vijay</author>
   </authors>
   <commentList>
+    <comment ref="X10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+9000-Cash
+6000-Digital</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K80" authorId="0">
       <text>
         <r>
@@ -590,9 +613,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
@@ -609,6 +632,20 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -635,8 +672,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,9 +702,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,51 +764,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -727,32 +773,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -836,7 +859,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,61 +925,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,67 +943,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,7 +967,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,7 +997,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,11 +1062,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1065,26 +1094,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,7 +1105,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,8 +1128,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,12 +1148,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1159,130 +1182,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1714,11 +1737,11 @@
   <dimension ref="A1:AX115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="M72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="W55" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P92" sqref="P92"/>
+      <selection pane="bottomRight" activeCell="Z73" sqref="Z73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1866,26 +1889,26 @@
       <c r="A2" s="14"/>
       <c r="B2" s="23">
         <f>SUM(F3:F121)</f>
-        <v>83500</v>
+        <v>110500</v>
       </c>
       <c r="D2" s="15">
         <f>SUM(H3:H121)</f>
-        <v>7500</v>
+        <v>34500</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="24">
         <f>H2+I2</f>
-        <v>83500</v>
+        <v>110500</v>
       </c>
       <c r="G2" s="24">
         <f>H2/1500</f>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H2" s="15">
         <f>SUM(J2:AN2)</f>
-        <v>7500</v>
+        <v>34500</v>
       </c>
       <c r="I2" s="28">
         <f>SUM(I3:I121)</f>
@@ -1945,7 +1968,7 @@
       </c>
       <c r="W2" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="X2" s="11">
         <f t="shared" si="0"/>
@@ -1953,11 +1976,11 @@
       </c>
       <c r="Y2" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="Z2" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="AA2" s="11">
         <f t="shared" si="0"/>
@@ -2512,15 +2535,15 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="I10" s="29">
         <v>15000</v>
@@ -2540,7 +2563,10 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
+      <c r="Y10" s="1">
+        <f>10*1500</f>
+        <v>15000</v>
+      </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
@@ -5813,15 +5839,15 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G59" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H59" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I59" s="29">
         <v>3000</v>
@@ -5842,7 +5868,10 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
+      <c r="Z59" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
@@ -6694,15 +6723,15 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G72" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H72" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I72" s="29">
         <v>0</v>
@@ -6720,7 +6749,10 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
+      <c r="W72" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
@@ -6761,15 +6793,15 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="G73" s="11">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H73" s="11">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="I73" s="29">
         <v>0</v>
@@ -6793,7 +6825,10 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
-      <c r="Z73" s="1"/>
+      <c r="Z73" s="1">
+        <f>4*1500</f>
+        <v>6000</v>
+      </c>
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
@@ -9205,11 +9240,11 @@
   <dimension ref="A1:BA112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="I69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="S40" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q73" sqref="Q73"/>
+      <selection pane="bottomRight" activeCell="Y59" sqref="Y59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -9357,14 +9392,14 @@
       <c r="E2" s="14"/>
       <c r="F2" s="15">
         <f>SUM(H3:H121)</f>
-        <v>9000</v>
+        <v>33000</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="17">
         <f>SUM(I2:AM2)</f>
-        <v>9000</v>
+        <v>33000</v>
       </c>
       <c r="I2" s="11">
         <f>SUM(I3:I121)</f>
@@ -9424,15 +9459,15 @@
       </c>
       <c r="W2" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="X2" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="Y2" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="Z2" s="11">
         <f t="shared" si="0"/>
@@ -9995,7 +10030,7 @@
       </c>
       <c r="H10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -10012,7 +10047,9 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
+      <c r="X10" s="20">
+        <v>15000</v>
+      </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
@@ -13300,7 +13337,7 @@
       </c>
       <c r="H59" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -13318,7 +13355,9 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
+      <c r="Y59" s="20">
+        <v>6000</v>
+      </c>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
@@ -14155,7 +14194,7 @@
       </c>
       <c r="H72" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -14171,7 +14210,9 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
+      <c r="W72" s="20">
+        <v>3000</v>
+      </c>
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
@@ -16580,11 +16621,11 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>74500</v>
+        <v>77500</v>
       </c>
       <c r="E2" s="7">
         <f>SUM(D3:D96)</f>
-        <v>74500</v>
+        <v>77500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -17413,7 +17454,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" hidden="1" spans="1:4">
       <c r="A59" s="8" t="s">
         <v>78</v>
       </c>
@@ -17425,7 +17466,7 @@
       </c>
       <c r="D59" s="10">
         <f>Orders!F59-Collection!H59</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" hidden="1" spans="1:4">
@@ -17617,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:4">
+    <row r="73" spans="1:4">
       <c r="A73" s="8" t="s">
         <v>93</v>
       </c>
@@ -17629,7 +17670,7 @@
       </c>
       <c r="D73" s="10">
         <f>Orders!F73-Collection!H73</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="74" hidden="1" spans="1:4">
@@ -17949,7 +17990,7 @@
         <filter val="6000"/>
         <filter val="7500"/>
         <filter val="15000"/>
-        <filter val="74500"/>
+        <filter val="77500"/>
       </filters>
     </filterColumn>
     <extLst/>

--- a/JioMobile/May2021Mobile.xlsx
+++ b/JioMobile/May2021Mobile.xlsx
@@ -613,8 +613,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
@@ -635,6 +635,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -643,67 +652,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,7 +667,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,11 +710,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -750,30 +773,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,7 +859,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,37 +889,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,13 +901,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,7 +931,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,13 +961,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,7 +973,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,19 +997,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,7 +1021,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,25 +1033,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,6 +1062,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1073,6 +1102,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,41 +1139,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,23 +1159,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1185,127 +1185,127 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1737,11 +1737,11 @@
   <dimension ref="A1:AX115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="W55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="W32" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z73" sqref="Z73"/>
+      <selection pane="bottomRight" activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1889,26 +1889,26 @@
       <c r="A2" s="14"/>
       <c r="B2" s="23">
         <f>SUM(F3:F121)</f>
-        <v>110500</v>
+        <v>125500</v>
       </c>
       <c r="D2" s="15">
         <f>SUM(H3:H121)</f>
-        <v>34500</v>
+        <v>49500</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="24">
         <f>H2+I2</f>
-        <v>110500</v>
+        <v>125500</v>
       </c>
       <c r="G2" s="24">
         <f>H2/1500</f>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H2" s="15">
         <f>SUM(J2:AN2)</f>
-        <v>34500</v>
+        <v>49500</v>
       </c>
       <c r="I2" s="28">
         <f>SUM(I3:I121)</f>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="AA2" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="AB2" s="11">
         <f t="shared" si="0"/>
@@ -4024,15 +4024,15 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G32" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="I32" s="29">
         <v>0</v>
@@ -4054,7 +4054,10 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
+      <c r="AA32" s="1">
+        <f>10*1500</f>
+        <v>15000</v>
+      </c>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
@@ -16621,11 +16624,11 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>77500</v>
+        <v>92500</v>
       </c>
       <c r="E2" s="7">
         <f>SUM(D3:D96)</f>
-        <v>77500</v>
+        <v>92500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -17059,7 +17062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:4">
+    <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
         <v>37</v>
       </c>
@@ -17071,7 +17074,7 @@
       </c>
       <c r="D32" s="10">
         <f>Orders!F32-Collection!H32</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="33" hidden="1" spans="1:4">
@@ -17990,7 +17993,7 @@
         <filter val="6000"/>
         <filter val="7500"/>
         <filter val="15000"/>
-        <filter val="77500"/>
+        <filter val="92500"/>
       </filters>
     </filterColumn>
     <extLst/>

--- a/JioMobile/May2021Mobile.xlsx
+++ b/JioMobile/May2021Mobile.xlsx
@@ -69,12 +69,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="AI80" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Jio phone for home/papa</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="178">
   <si>
     <t>S.No.</t>
   </si>
@@ -606,16 +628,19 @@
   <si>
     <t>Dues Amount</t>
   </si>
+  <si>
+    <t>Kurakothi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
@@ -635,51 +660,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -696,7 +676,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,11 +736,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -726,7 +759,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -743,29 +776,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,6 +785,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,13 +884,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,7 +908,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,7 +926,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,7 +950,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,25 +1022,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,91 +1052,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,22 +1087,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1092,16 +1112,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,17 +1141,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,17 +1159,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,7 +1189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1182,28 +1207,22 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1212,100 +1231,106 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1737,11 +1762,11 @@
   <dimension ref="A1:AX115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="W32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="AJ65" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA32" sqref="AA32"/>
+      <selection pane="bottomRight" activeCell="AN73" sqref="AN73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1889,26 +1914,26 @@
       <c r="A2" s="14"/>
       <c r="B2" s="23">
         <f>SUM(F3:F121)</f>
-        <v>125500</v>
+        <v>143500</v>
       </c>
       <c r="D2" s="15">
         <f>SUM(H3:H121)</f>
-        <v>49500</v>
+        <v>67500</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="24">
         <f>H2+I2</f>
-        <v>125500</v>
+        <v>143500</v>
       </c>
       <c r="G2" s="24">
         <f>H2/1500</f>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H2" s="15">
         <f>SUM(J2:AN2)</f>
-        <v>49500</v>
+        <v>67500</v>
       </c>
       <c r="I2" s="28">
         <f>SUM(I3:I121)</f>
@@ -1988,7 +2013,7 @@
       </c>
       <c r="AB2" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AC2" s="11">
         <f t="shared" si="0"/>
@@ -1996,7 +2021,7 @@
       </c>
       <c r="AD2" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AE2" s="11">
         <f t="shared" si="0"/>
@@ -2016,11 +2041,11 @@
       </c>
       <c r="AI2" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="AJ2" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AK2" s="11">
         <f t="shared" si="0"/>
@@ -2036,7 +2061,7 @@
       </c>
       <c r="AN2" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="3" s="12" customFormat="1" spans="1:50">
@@ -4161,15 +4186,15 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="G34" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I34" s="29">
         <v>1500</v>
@@ -4194,7 +4219,10 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
+      <c r="AD34" s="1">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
@@ -5842,15 +5870,15 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="G59" s="11">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H59" s="11">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="I59" s="29">
         <v>3000</v>
@@ -5876,7 +5904,10 @@
         <v>3000</v>
       </c>
       <c r="AA59" s="1"/>
-      <c r="AB59" s="1"/>
+      <c r="AB59" s="1">
+        <f>4*1500</f>
+        <v>6000</v>
+      </c>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
@@ -6047,15 +6078,15 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G62" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I62" s="29">
         <v>0</v>
@@ -6085,7 +6116,10 @@
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
-      <c r="AI62" s="1"/>
+      <c r="AI62" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="AJ62" s="1"/>
       <c r="AK62" s="1"/>
       <c r="AL62" s="1"/>
@@ -6726,15 +6760,15 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G72" s="11">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H72" s="11">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="I72" s="29">
         <v>0</v>
@@ -6772,7 +6806,10 @@
       <c r="AK72" s="1"/>
       <c r="AL72" s="1"/>
       <c r="AM72" s="1"/>
-      <c r="AN72" s="1"/>
+      <c r="AN72" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="AO72" s="1"/>
       <c r="AP72" s="1"/>
       <c r="AQ72" s="1"/>
@@ -6796,15 +6833,15 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="7"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G73" s="11">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H73" s="11">
         <f t="shared" si="9"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="I73" s="29">
         <v>0</v>
@@ -6845,7 +6882,10 @@
       <c r="AK73" s="1"/>
       <c r="AL73" s="1"/>
       <c r="AM73" s="1"/>
-      <c r="AN73" s="1"/>
+      <c r="AN73" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="AO73" s="1"/>
       <c r="AP73" s="1"/>
       <c r="AQ73" s="1"/>
@@ -7274,15 +7314,15 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="7"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="G80" s="11">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" s="11">
         <f t="shared" si="9"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="I80" s="29">
         <v>0</v>
@@ -7316,7 +7356,10 @@
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
       <c r="AI80" s="1"/>
-      <c r="AJ80" s="1"/>
+      <c r="AJ80" s="1">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
       <c r="AK80" s="1"/>
       <c r="AL80" s="1"/>
       <c r="AM80" s="1"/>
@@ -9243,11 +9286,11 @@
   <dimension ref="A1:BA112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="S40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="AK67" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y59" sqref="Y59"/>
+      <selection pane="bottomRight" activeCell="AM72" sqref="AM72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -9395,14 +9438,14 @@
       <c r="E2" s="14"/>
       <c r="F2" s="15">
         <f>SUM(H3:H121)</f>
-        <v>33000</v>
+        <v>42000</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="17">
         <f>SUM(I2:AM2)</f>
-        <v>33000</v>
+        <v>42000</v>
       </c>
       <c r="I2" s="11">
         <f>SUM(I3:I121)</f>
@@ -9470,7 +9513,7 @@
       </c>
       <c r="Y2" s="11">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="Z2" s="11">
         <f t="shared" si="0"/>
@@ -9486,7 +9529,7 @@
       </c>
       <c r="AC2" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AD2" s="11">
         <f t="shared" si="0"/>
@@ -9510,7 +9553,7 @@
       </c>
       <c r="AI2" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AJ2" s="11">
         <f t="shared" si="0"/>
@@ -9522,11 +9565,11 @@
       </c>
       <c r="AL2" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AM2" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="3" s="12" customFormat="1" spans="1:53">
@@ -11676,7 +11719,7 @@
       </c>
       <c r="H34" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -11698,7 +11741,9 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
+      <c r="AC34" s="1">
+        <v>1500</v>
+      </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
@@ -13340,7 +13385,7 @@
       </c>
       <c r="H59" s="11">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -13359,7 +13404,7 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="20">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
@@ -14197,7 +14242,7 @@
       </c>
       <c r="H72" s="11">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -14231,7 +14276,9 @@
       <c r="AJ72" s="1"/>
       <c r="AK72" s="1"/>
       <c r="AL72" s="1"/>
-      <c r="AM72" s="1"/>
+      <c r="AM72" s="20">
+        <v>3000</v>
+      </c>
       <c r="AN72" s="1"/>
       <c r="AO72" s="1"/>
       <c r="AP72" s="1"/>
@@ -14262,7 +14309,7 @@
       </c>
       <c r="H73" s="11">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -14292,10 +14339,11 @@
       <c r="AF73" s="1"/>
       <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
-      <c r="AI73" s="1"/>
       <c r="AJ73" s="1"/>
       <c r="AK73" s="1"/>
-      <c r="AL73" s="1"/>
+      <c r="AL73" s="20">
+        <v>6000</v>
+      </c>
       <c r="AM73" s="1"/>
       <c r="AN73" s="1"/>
       <c r="AO73" s="1"/>
@@ -14735,7 +14783,7 @@
       </c>
       <c r="H80" s="11">
         <f t="shared" si="3"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -14765,7 +14813,9 @@
       <c r="AF80" s="1"/>
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
-      <c r="AI80" s="1"/>
+      <c r="AI80" s="1">
+        <v>1500</v>
+      </c>
       <c r="AJ80" s="1"/>
       <c r="AK80" s="1"/>
       <c r="AL80" s="1"/>
@@ -16584,11 +16634,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D73" sqref="A1:D73"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -16624,11 +16674,11 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>92500</v>
+        <v>101500</v>
       </c>
       <c r="E2" s="7">
         <f>SUM(D3:D96)</f>
-        <v>92500</v>
+        <v>101500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -16646,7 +16696,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:4">
+    <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -16691,7 +16741,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:4">
+    <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -16706,7 +16756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:4">
+    <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -16721,7 +16771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:4">
+    <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -16751,7 +16801,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:4">
+    <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
@@ -16766,7 +16816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:4">
+    <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
@@ -16781,7 +16831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:4">
+    <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
@@ -16796,7 +16846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:4">
+    <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -16811,7 +16861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:4">
+    <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
@@ -16826,7 +16876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:4">
+    <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
@@ -16841,7 +16891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:4">
+    <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
@@ -16854,7 +16904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:4">
+    <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>24</v>
       </c>
@@ -16882,7 +16932,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:4">
+    <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
@@ -16912,7 +16962,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:4">
+    <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
         <v>37</v>
       </c>
@@ -16927,7 +16977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:4">
+    <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
         <v>37</v>
       </c>
@@ -16942,7 +16992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:4">
+    <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>37</v>
       </c>
@@ -16957,7 +17007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:4">
+    <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
         <v>37</v>
       </c>
@@ -16972,7 +17022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:4">
+    <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
         <v>37</v>
       </c>
@@ -17002,7 +17052,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:4">
+    <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
         <v>37</v>
       </c>
@@ -17017,7 +17067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:4">
+    <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
         <v>37</v>
       </c>
@@ -17032,7 +17082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:4">
+    <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
         <v>37</v>
       </c>
@@ -17047,7 +17097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:4">
+    <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
         <v>37</v>
       </c>
@@ -17077,7 +17127,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:4">
+    <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
         <v>37</v>
       </c>
@@ -17107,7 +17157,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:4">
+    <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
         <v>52</v>
       </c>
@@ -17137,7 +17187,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:4">
+    <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
         <v>52</v>
       </c>
@@ -17152,7 +17202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:4">
+    <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
         <v>52</v>
       </c>
@@ -17180,7 +17230,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:4">
+    <row r="40" spans="1:4">
       <c r="A40" s="8" t="s">
         <v>52</v>
       </c>
@@ -17240,7 +17290,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:4">
+    <row r="44" spans="1:4">
       <c r="A44" s="8" t="s">
         <v>52</v>
       </c>
@@ -17268,7 +17318,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:4">
+    <row r="46" spans="1:4">
       <c r="A46" s="8" t="s">
         <v>65</v>
       </c>
@@ -17283,7 +17333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:4">
+    <row r="47" spans="1:4">
       <c r="A47" s="8" t="s">
         <v>65</v>
       </c>
@@ -17298,7 +17348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:4">
+    <row r="48" spans="1:4">
       <c r="A48" s="8" t="s">
         <v>65</v>
       </c>
@@ -17326,7 +17376,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:4">
+    <row r="50" spans="1:4">
       <c r="A50" s="8" t="s">
         <v>65</v>
       </c>
@@ -17341,7 +17391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:4">
+    <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
         <v>65</v>
       </c>
@@ -17356,7 +17406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:4">
+    <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
         <v>65</v>
       </c>
@@ -17369,7 +17419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:4">
+    <row r="53" spans="1:4">
       <c r="A53" s="8" t="s">
         <v>65</v>
       </c>
@@ -17384,7 +17434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:4">
+    <row r="54" spans="1:4">
       <c r="A54" s="8" t="s">
         <v>65</v>
       </c>
@@ -17399,7 +17449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:4">
+    <row r="55" spans="1:4">
       <c r="A55" s="8" t="s">
         <v>65</v>
       </c>
@@ -17412,7 +17462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:4">
+    <row r="56" spans="1:4">
       <c r="A56" s="8" t="s">
         <v>65</v>
       </c>
@@ -17427,7 +17477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:4">
+    <row r="57" spans="1:4">
       <c r="A57" s="8" t="s">
         <v>65</v>
       </c>
@@ -17457,7 +17507,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:4">
+    <row r="59" spans="1:4">
       <c r="A59" s="8" t="s">
         <v>78</v>
       </c>
@@ -17469,10 +17519,10 @@
       </c>
       <c r="D59" s="10">
         <f>Orders!F59-Collection!H59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" hidden="1" spans="1:4">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="8" t="s">
         <v>78</v>
       </c>
@@ -17487,7 +17537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:4">
+    <row r="61" spans="1:4">
       <c r="A61" s="8" t="s">
         <v>78</v>
       </c>
@@ -17500,7 +17550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:4">
+    <row r="62" spans="1:4">
       <c r="A62" s="8" t="s">
         <v>83</v>
       </c>
@@ -17512,10 +17562,10 @@
       </c>
       <c r="D62" s="10">
         <f>Orders!F62-Collection!H62</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" hidden="1" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="8" t="s">
         <v>83</v>
       </c>
@@ -17530,7 +17580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:4">
+    <row r="64" spans="1:4">
       <c r="A64" s="8" t="s">
         <v>83</v>
       </c>
@@ -17545,7 +17595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:4">
+    <row r="65" spans="1:4">
       <c r="A65" s="8" t="s">
         <v>88</v>
       </c>
@@ -17560,7 +17610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:4">
+    <row r="66" spans="1:4">
       <c r="A66" s="8" t="s">
         <v>88</v>
       </c>
@@ -17575,7 +17625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:4">
+    <row r="67" spans="1:4">
       <c r="A67" s="8" t="s">
         <v>91</v>
       </c>
@@ -17590,7 +17640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:4">
+    <row r="68" spans="1:4">
       <c r="A68" s="8" t="s">
         <v>93</v>
       </c>
@@ -17605,7 +17655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:4">
+    <row r="69" spans="1:4">
       <c r="A69" s="8" t="s">
         <v>93</v>
       </c>
@@ -17618,7 +17668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:4">
+    <row r="70" spans="1:4">
       <c r="A70" s="8" t="s">
         <v>93</v>
       </c>
@@ -17631,7 +17681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:4">
+    <row r="71" spans="1:4">
       <c r="A71" s="8" t="s">
         <v>93</v>
       </c>
@@ -17646,7 +17696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:4">
+    <row r="72" spans="1:4">
       <c r="A72" s="8" t="s">
         <v>93</v>
       </c>
@@ -17673,10 +17723,10 @@
       </c>
       <c r="D73" s="10">
         <f>Orders!F73-Collection!H73</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="74" hidden="1" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="8" t="s">
         <v>93</v>
       </c>
@@ -17691,7 +17741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:4">
+    <row r="75" spans="1:4">
       <c r="A75" s="8" t="s">
         <v>93</v>
       </c>
@@ -17706,7 +17756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:4">
+    <row r="76" spans="1:4">
       <c r="A76" s="8" t="s">
         <v>93</v>
       </c>
@@ -17721,7 +17771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:4">
+    <row r="77" spans="1:4">
       <c r="A77" s="8" t="s">
         <v>103</v>
       </c>
@@ -17736,7 +17786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:4">
+    <row r="78" spans="1:4">
       <c r="A78" s="8" t="s">
         <v>103</v>
       </c>
@@ -17751,7 +17801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:4">
+    <row r="79" spans="1:4">
       <c r="A79" s="8" t="s">
         <v>103</v>
       </c>
@@ -17766,7 +17816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:4">
+    <row r="80" spans="1:4">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9" t="s">
@@ -17777,7 +17827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:4">
+    <row r="81" spans="1:4">
       <c r="A81" s="8" t="s">
         <v>108</v>
       </c>
@@ -17792,7 +17842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:4">
+    <row r="82" spans="1:4">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9" t="s">
@@ -17803,7 +17853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:4">
+    <row r="83" spans="1:4">
       <c r="A83" s="8" t="s">
         <v>111</v>
       </c>
@@ -17818,7 +17868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:4">
+    <row r="84" spans="1:4">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9" t="s">
@@ -17829,7 +17879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:4">
+    <row r="85" spans="1:4">
       <c r="A85" s="8" t="s">
         <v>114</v>
       </c>
@@ -17844,7 +17894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:4">
+    <row r="86" spans="1:4">
       <c r="A86" s="8" t="s">
         <v>114</v>
       </c>
@@ -17859,7 +17909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:4">
+    <row r="87" spans="1:4">
       <c r="A87" s="8" t="s">
         <v>114</v>
       </c>
@@ -17874,7 +17924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:4">
+    <row r="88" spans="1:4">
       <c r="A88" s="8" t="s">
         <v>118</v>
       </c>
@@ -17887,7 +17937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:4">
+    <row r="89" spans="1:4">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9" t="s">
@@ -17898,8 +17948,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:4">
-      <c r="A90" s="8"/>
+    <row r="90" spans="1:4">
+      <c r="A90" s="8" t="s">
+        <v>177</v>
+      </c>
       <c r="B90" s="8"/>
       <c r="C90" s="9" t="s">
         <v>121</v>
@@ -17909,8 +17961,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:4">
-      <c r="A91" s="8"/>
+    <row r="91" spans="1:4">
+      <c r="A91" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="B91" s="8"/>
       <c r="C91" s="9" t="s">
         <v>122</v>
@@ -17920,7 +17974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:4">
+    <row r="92" spans="1:4">
       <c r="A92" s="8" t="s">
         <v>123</v>
       </c>
@@ -17935,7 +17989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:4">
+    <row r="93" spans="1:4">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9" t="s">
@@ -17946,7 +18000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:4">
+    <row r="94" spans="1:4">
       <c r="A94" s="8"/>
       <c r="B94" s="8">
         <v>7254967519</v>
@@ -17959,7 +18013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:4">
+    <row r="95" spans="1:4">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9" t="s">
@@ -17970,7 +18024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:4">
+    <row r="96" spans="1:4">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9" t="s">
@@ -17983,19 +18037,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D96">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1500"/>
-        <filter val="3000"/>
-        <filter val="3500"/>
-        <filter val="4500"/>
-        <filter val="5000"/>
-        <filter val="6000"/>
-        <filter val="7500"/>
-        <filter val="15000"/>
-        <filter val="92500"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
